--- a/docs/src/reference/data-dictionaries/DSuite2018-data-dictionary.xlsx
+++ b/docs/src/reference/data-dictionaries/DSuite2018-data-dictionary.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z299"/>
+  <dimension ref="A1:Z298"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -428,10 +428,10 @@
   <cols>
     <col width="15" customWidth="1" min="1" max="1"/>
     <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="15" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="6" max="6"/>
     <col width="15" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="45" customWidth="1" min="9" max="9"/>
@@ -450,22 +450,22 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>state</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>county</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>tract</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>zcta</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>tract</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>state</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -672,17 +672,17 @@
           <t>Social Vulnerability Index (SVI) Summary Ranking</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -714,17 +714,17 @@
           <t>Social Vulnerability Index (SVI) 1</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="D8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -756,17 +756,17 @@
           <t>Social Vulnerability Index (SVI) 2</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="D9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -798,17 +798,17 @@
           <t>Social Vulnerability Index (SVI) 3</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="D10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -840,17 +840,17 @@
           <t>Social Vulnerability Index (SVI) 4</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -874,12 +874,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EduP</t>
+          <t>EssnWrkE</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Employed % - Education</t>
+          <t>Count of Essential Workers</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -921,12 +921,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EssnWrkE</t>
+          <t>EssnWrkP</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Count of Essential Workers</t>
+          <t>Essential Workers %</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -968,12 +968,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EssnWrkP</t>
+          <t>HghRskP</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Essential Workers %</t>
+          <t>Employed % - High Risk of Injury</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1015,12 +1015,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HghRskP</t>
+          <t>HltCrP</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Employed % - High Risk of Injury</t>
+          <t>Employed % - Health Care</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1062,12 +1062,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HltCrP</t>
+          <t>RetailP</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Employed % - Health Care</t>
+          <t>Employed % - Retail</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1109,12 +1109,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RetailP</t>
+          <t>TotWrkE</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Employed % - Retail</t>
+          <t>Count of Working Population</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1156,12 +1156,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TotWrkE</t>
+          <t>ForDqP</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Count of Working Population</t>
+          <t>Foreclosure &amp; Delinquency %</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1179,11 +1179,6 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>Economic</t>
@@ -1191,24 +1186,24 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Employment Trends</t>
+          <t>Great Recession Foreclosure Rate</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Employment_Trends.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ForDqP</t>
+          <t>ForDqTot</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency %</t>
+          <t>Foreclosure &amp; Delinquency Count</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1216,12 +1211,12 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -1245,15 +1240,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ForDqTot</t>
+          <t>GiniCoeff</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Foreclosure &amp; Delinquency Count</t>
+          <t>Income Inequality (Gini Coefficient)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -1287,12 +1287,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GiniCoeff</t>
+          <t>NoIntP</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Income Inequality (Gini Coefficient)</t>
+          <t>Households without Internet Access %</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1322,24 +1322,24 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Great Recession Foreclosure Rate</t>
+          <t>Internet Access</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Foreclosure_Rate.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NoIntP</t>
+          <t>MedInc</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Households without Internet Access %</t>
+          <t>Median Income</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1369,24 +1369,24 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Internet Access</t>
+          <t>Poverty, Income, Gini Coefficient</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Internet_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MedInc</t>
+          <t>PciE</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Median Income</t>
+          <t>Per Capita Income</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PciE</t>
+          <t>PovP</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Per Capita Income</t>
+          <t>Poverty %</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1475,12 +1475,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PovP</t>
+          <t>UnempP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Poverty %</t>
+          <t>Unemployment %</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1522,12 +1522,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UnempP</t>
+          <t>AlcDens</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Unemployment %</t>
+          <t>Alcohol Outlets Density</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1552,29 +1552,29 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Economic</t>
+          <t>Environment</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Poverty, Income, Gini Coefficient</t>
+          <t>Alcohol Outlet Density Measures</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Economic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AlcDens</t>
+          <t>AlcPerCap</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Alcohol Outlets Density</t>
+          <t>Alcohol Outlets per Capita</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1616,12 +1616,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AlcPerCap</t>
+          <t>AlcTot</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Alcohol Outlets per Capita</t>
+          <t>Total Alcohol Outlets</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1663,12 +1663,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AlcTot</t>
+          <t>AreaSqMi</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Total Alcohol Outlets</t>
+          <t>Land Area (Square Miles)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1710,12 +1710,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AreaSqMi</t>
+          <t>Ndvi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Land Area (Square Miles)</t>
+          <t>NDVI Average</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1745,42 +1745,27 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Alcohol Outlet Density Measures</t>
+          <t>Greenspace Measures</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Alcohol_Outlet_Density.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ndvi</t>
+          <t>StateArea</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>NDVI Average</t>
+          <t>State Area</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -1804,17 +1789,22 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>StateArea</t>
+          <t>PcpPer100k</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>State Area</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Primary Care Physicians (PCP) per 100k</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -1824,27 +1814,27 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Greenspace Measures</t>
+          <t>Healthcare Provider Access</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Greenspace_Measures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>PcpPer100k</t>
+          <t>SpPer100k</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Primary Care Physicians (PCP) per 100k</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+          <t>Specialty Physicians per 100k</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -1873,15 +1863,20 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SpPer100k</t>
+          <t>TotPcp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Specialty Physicians per 100k</t>
+          <t>Count of Primary Care Physicians (PCPs)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -1910,12 +1905,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TotPcp</t>
+          <t>TotSp</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Count of Primary Care Physicians (PCPs)</t>
+          <t>Count of Specialty Physicians</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1923,12 +1918,12 @@
           <t>2010</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -1952,27 +1947,32 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TotSp</t>
+          <t>LngTermP</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Count of Specialty Physicians</t>
+          <t>Long-Term Occupancy %</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1982,24 +1982,24 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Healthcare Provider Access</t>
+          <t xml:space="preserve">Housing Characteristics </t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Healthcare_Provider_Access.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LngTermP</t>
+          <t>MobileP</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Long-Term Occupancy %</t>
+          <t>Mobile Homes %</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2041,12 +2041,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MobileP</t>
+          <t>RentalP</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Mobile Homes %</t>
+          <t>Rentals %</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2088,12 +2088,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RentalP</t>
+          <t>TotUnits</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Rentals %</t>
+          <t>Total Occupied Housing Units</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2135,12 +2135,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TotUnits</t>
+          <t>UnitDens</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Occupied Housing Units</t>
+          <t>Housing Unit Density</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2182,12 +2182,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>UnitDens</t>
+          <t>VacantP</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Housing Unit Density</t>
+          <t>Vacant Housing Units %</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2229,32 +2229,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>VacantP</t>
+          <t>HospAvTmDr</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Vacant Housing Units %</t>
+          <t>Avg. Driving Time to nearest Hospital</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2264,27 +2254,27 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Housing Characteristics </t>
+          <t>Spatial Access to Hospitals</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Housing_Variables.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HospAvTmDr</t>
+          <t>HospCntDr</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Avg. Driving Time to nearest Hospital</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>Count of Hospitals (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2313,20 +2303,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HospCntDr</t>
+          <t>HospCtTmDr</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Count of Hospitals (30-min drive)</t>
+          <t>Tracts with Hospital (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2350,15 +2340,15 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HospCtTmDr</t>
+          <t>HospMinDis</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tracts with Hospital (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>Distance (mi) to nearest Hospital</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2387,20 +2377,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HospMinDis</t>
+          <t>HospTmDr</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Hospital</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Driving time (min) to nearest Hospital</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2424,20 +2414,20 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HospTmDr</t>
+          <t>HospTmDrP</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest Hospital</t>
+          <t>% Tracts within 30-min Drive of Hospital</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2461,12 +2451,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HospTmDrP</t>
+          <t>AvBupTime</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Hospital</t>
+          <t>Driving Time to Buprenorphine Provider (driving time across all tracts)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2474,11 +2464,6 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
       <c r="G48" t="inlineStr">
         <is>
           <t>Environment</t>
@@ -2486,27 +2471,27 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Spatial Access to Hospitals</t>
+          <t>Spatial Access to MOUDs</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Hospitals.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AvBupTime</t>
+          <t>AvMetTime</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Driving Time to Buprenorphine Provider (driving time across all tracts)</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
+          <t>Driving Time to Methadone Provider (driving time across all tracts)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2530,15 +2515,15 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AvMetTime</t>
+          <t>AvNaltTime</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Driving Time to Methadone Provider (driving time across all tracts)</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
+          <t>Driving Time to Naltrexone Provider (driving time across all tracts)</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2562,15 +2547,15 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AvNaltTime</t>
+          <t>BupAvTmBk</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Driving Time to Naltrexone Provider (driving time across all tracts)</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
+          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2594,15 +2579,15 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BupAvTmBk</t>
+          <t>BupAvTmDr</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2626,15 +2611,15 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>BupAvTmDr</t>
+          <t>BupAvTmWk</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2658,15 +2643,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BupAvTmWk</t>
+          <t>BupCntBk30</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+          <t>Count of Buprenorphine Providers (30-min bike)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2690,20 +2680,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BupCntBk30</t>
+          <t>BupCntBk60</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min bike)</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Buprenorphine Providers (60-min bike)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2727,20 +2717,20 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BupCntBk60</t>
+          <t>BupCntDr30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min bike)</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Buprenorphine Providers (30-min drive)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2764,20 +2754,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BupCntDr30</t>
+          <t>BupCntWk30</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Buprenorphine Providers (30-min walk)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2801,20 +2791,20 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BupCntWk30</t>
+          <t>BupCntWk60</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (30-min walk)</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Buprenorphine Providers (60-min walk)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2838,20 +2828,15 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BupCntWk60</t>
+          <t>BupCtTmBk</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Count of Buprenorphine Providers (60-min walk)</t>
+          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2875,15 +2860,15 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BupCtTmBk</t>
+          <t>BupCtTmDr</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (biking)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2907,15 +2892,15 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BupCtTmDr</t>
+          <t>BupCtTmWk</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (driving)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
+          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2939,15 +2924,20 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BupCtTmWk</t>
+          <t>BupMinDis</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider within 30-min (walking)</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
+          <t>Distance (mi) to nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -2971,17 +2961,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BupMinDis</t>
+          <t>BupRm30</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Buprenorphine access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3008,12 +2993,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>BupRm30</t>
+          <t>BupRm60</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Buprenorphine access 30 minutes (RAAM)</t>
+          <t>Buprenorphine access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3040,12 +3025,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BupRm60</t>
+          <t>BupRm90</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Buprenorphine access 60 minutes (RAAM)</t>
+          <t>Buprenorphine access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3072,15 +3057,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BupRm90</t>
+          <t>BupTmBk</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Buprenorphine access 90 minutes (RAAM)</t>
+          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3104,20 +3094,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BupTmBk</t>
+          <t>BupTmBkP</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Buprenorphine Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3141,15 +3126,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BupTmBkP</t>
+          <t>BupTmDr</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min bike)</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
+          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3173,20 +3163,15 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BupTmDr</t>
+          <t>BupTmDrP</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Buprenorphine Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3210,15 +3195,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BupTmDrP</t>
+          <t>BupTmWk</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
+          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3242,20 +3232,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BupTmWk</t>
+          <t>BupTmWkP</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Buprenorphine Provider</t>
+          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3279,12 +3264,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BupTmWkP</t>
+          <t>CntBupT</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>% Tracts With Buprenorphine Provider (30-min walk)</t>
+          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3311,15 +3296,15 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CntBupT</t>
+          <t>CntMetT</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Tracts with Buprenorphine Provider (30-min driving)</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
+          <t>Tracts with Methadone Provider (30-min driving)</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3343,15 +3328,15 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CntMetT</t>
+          <t>CntNaltT</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider (30-min driving)</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
+          <t>Tracts with Naltrexone Provider (30-min driving)</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3375,15 +3360,15 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CntNaltT</t>
+          <t>MetAvTmBk</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider (30-min driving)</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
+          <t>Biking Time (min) to Nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3407,15 +3392,15 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MetAvTmBk</t>
+          <t>MetAvTmDr</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
+          <t>Driving Time (min) to Nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3439,15 +3424,15 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>MetAvTmDr</t>
+          <t>MetAvTmWk</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
+          <t>Walking Time (min) to Nearest Methadone Provide</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3471,15 +3456,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MetAvTmWk</t>
+          <t>MetCntBk30</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Methadone Provide</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
+          <t>Count of methadone providers (30-min bike)</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3503,20 +3493,20 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MetCntBk30</t>
+          <t>MetCntBk60</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Count of methadone providers (30-min bike)</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Methadone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3540,20 +3530,20 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MetCntBk60</t>
+          <t>MetCntDr30</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min bike)</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Methadone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3577,20 +3567,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MetCntDr30</t>
+          <t>MetCntWk30</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Methadone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3614,20 +3604,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MetCntWk30</t>
+          <t>MetCntWk60</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (60-min walk)</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Methadone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3651,20 +3641,15 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MetCntWk60</t>
+          <t>MetCtTmBk</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Count of Methadone Providers (30-min walk)</t>
+          <t>Tracts with Methadone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3688,15 +3673,15 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MetCtTmBk</t>
+          <t>MetCtTmDr</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (biking)</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
+          <t>Tracts with Methadone Provider within 30-min (driving)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3720,15 +3705,15 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MetCtTmDr</t>
+          <t>MetCtTmWk</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (driving)</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
+          <t>Tracts with Methadone Provider within 30-min (walking)</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3752,15 +3737,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MetCtTmWk</t>
+          <t>MetMinDis</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Tracts with Methadone Provider within 30-min (walking)</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
+          <t>Distance (mi) to nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3784,17 +3774,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MetMinDis</t>
+          <t>MetRm30</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Methadone Provider</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Methadone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3821,12 +3806,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MetRm30</t>
+          <t>MetRm60</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Methadone access 30 minutes (RAAM)</t>
+          <t>Methadone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3853,12 +3838,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MetRm60</t>
+          <t>MetRm90</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Methadone access 60 minutes (RAAM)</t>
+          <t>Methadone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3885,15 +3870,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MetRm90</t>
+          <t>MetTmBk</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Methadone access 90 minutes (RAAM)</t>
+          <t>Biking Time (min) to nearest Methadone Provider</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3917,20 +3907,15 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MetTmBk</t>
+          <t>MetTmBkP</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Methadone Provider</t>
+          <t>% Tracts With Methadone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3954,15 +3939,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MetTmBkP</t>
+          <t>MetTmDr</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min bike)</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
+          <t>Driving Time (min) to nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -3986,20 +3976,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MetTmDr</t>
+          <t>MetTmDrP</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Methadone Provider</t>
+          <t>% Tracts With Methadone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4023,15 +4008,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MetTmDrP</t>
+          <t>MetTmWk</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
+          <t>Walking Time (min) to nearest Methadone Provider</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4055,20 +4045,15 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MetTmWk</t>
+          <t>MetTmWkP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Methadone Provider</t>
+          <t>% Tracts With Methadone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4092,15 +4077,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MetTmWkP</t>
+          <t>MoudMinDis</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>% Tracts With Methadone Provider (30-min walk)</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
+          <t>Distance (mi) to nearest MOUD (any)</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4124,20 +4114,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MoudMinDis</t>
+          <t>NaltAvTmBk</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest MOUD (any)</t>
+          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4161,15 +4146,15 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>NaltAvTmBk</t>
+          <t>NaltAvTmDr</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Biking Time (min) to Nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
+          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4193,15 +4178,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>NaltAvTmDr</t>
+          <t>NaltAvTmWk</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Driving Time (min) to Nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
+          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4225,15 +4210,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NaltAvTmWk</t>
+          <t>NaltCntBk30</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Walking Time (min) to Nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
+          <t>Count of Naltrexone Providers (30-min bike)</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4257,20 +4247,20 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>NaltCntBk30</t>
+          <t>NaltCntBk60</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min bike)</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Naltrexone Providers (60-min bike)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4294,20 +4284,20 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NaltCntBk60</t>
+          <t>NaltCntDr30</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min bike)</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Naltrexone Providers (30-min drive)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4331,20 +4321,20 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>NaltCntDr30</t>
+          <t>NaltCntWk30</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Naltrexone Providers (30-min walk)</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4368,20 +4358,20 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>NaltCntWk30</t>
+          <t>NaltCntWk60</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (30-min walk)</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Count of Naltrexone Providers (60-min walk)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4405,20 +4395,15 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>NaltCntWk60</t>
+          <t>NaltCtTmBk</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Count of Naltrexone Providers (60-min walk)</t>
+          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4442,15 +4427,15 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NaltCtTmBk</t>
+          <t>NaltCtTmDr</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (biking)</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
+          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4474,15 +4459,15 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NaltCtTmDr</t>
+          <t>NaltCtTmWk</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (driving)</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
+          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4506,15 +4491,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>NaltCtTmWk</t>
+          <t>NaltMinDis</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tracts with Naltrexone Provider within 30-min (walking)</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
+          <t>Distance (mi) to nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4538,17 +4528,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NaltMinDis</t>
+          <t>NaltRm30</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Naltrexone access 30 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -4575,12 +4560,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>NaltRm30</t>
+          <t>NaltRm60</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Naltrexone access 30 minutes (RAAM)</t>
+          <t>Naltrexone access 60 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4607,12 +4592,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NaltRm60</t>
+          <t>NaltRm90</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Naltrexone access 60 minutes (RAAM)</t>
+          <t>Naltrexone access 90 minutes (RAAM)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4639,15 +4624,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NaltRm90</t>
+          <t>NaltTmBk</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Naltrexone access 90 minutes (RAAM)</t>
+          <t>Biking Time (min) to nearest Naltrexone Provider</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4671,20 +4661,15 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NaltTmBk</t>
+          <t>NaltTmBkP</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Biking Time (min) to nearest Naltrexone Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4708,15 +4693,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NaltTmBkP</t>
+          <t>NaltTmDr</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min bike)</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
+          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4740,20 +4730,15 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NaltTmDr</t>
+          <t>NaltTmDrP</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Naltrexone Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4777,15 +4762,20 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NaltTmDrP</t>
+          <t>NaltTmWk</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
+          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4809,20 +4799,15 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NaltTmWk</t>
+          <t>NaltTmWkP</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Walking Time (min) to nearest Naltrexone Provider</t>
+          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -4846,17 +4831,22 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>NaltTmWkP</t>
+          <t>OtpAvTmDr</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>% Tracts With Naltrexone Provider (30-min walk)</t>
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4878,15 +4868,15 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>OtpAvTmDr</t>
+          <t>OtpCntDr</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
+          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4915,20 +4905,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OtpCntDr</t>
+          <t>OtpCtTmDr</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Count of Opioid Treatment Programs (OTP) (30-min drive)</t>
+          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4952,15 +4942,15 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>OtpCtTmDr</t>
+          <t>OtpMinDis</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
+          <t>Distance to nearest OTP</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -4989,20 +4979,20 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>OtpMinDis</t>
+          <t>OtpTmDr</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Distance to nearest OTP</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
+          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -5026,20 +5016,20 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>OtpTmDr</t>
+          <t>OtpTmDrP</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Opioid Treatment Program (OTP)</t>
+          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2021</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
@@ -5063,22 +5053,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>OtpTmDrP</t>
+          <t>PctBupT</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>% Tracts with Opioid Treatment Program (OTP) (30-min drive)</t>
+          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2021</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>2021</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -5100,15 +5085,15 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PctBupT</t>
+          <t>PctMetT</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Buprenorphine Provider</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
+          <t>% Tracts within 30-min Drive of Methadone Provider</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5132,15 +5117,15 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>PctMetT</t>
+          <t>PctNaltT</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Methadone Provider</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
+          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5164,15 +5149,20 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PctNaltT</t>
+          <t>MhAvTmDr</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>% Tracts within 30-min Drive of Naltrexone Provider</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5184,27 +5174,27 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Spatial Access to MOUDs</t>
+          <t>Spatial Access to Mental Health Providers</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_MOUDs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MhAvTmDr</t>
+          <t>MhCntDr</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
+          <t>Count of Mental Health Providers (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5233,20 +5223,20 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MhCntDr</t>
+          <t>MhCtTmDr</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Count of Mental Health Providers (30-min drive)</t>
+          <t>Tracts with Mental Health Provider (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5270,15 +5260,15 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MhCtTmDr</t>
+          <t>MhMinDis</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Tracts with Mental Health Provider (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
+          <t>Distance (mi) to nearest Mental Health Provider</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5307,20 +5297,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MhMinDis</t>
+          <t>MhTmDr</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Mental Health Provider</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Driving Time (min) to nearest Mental Health Provider</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5344,20 +5334,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>MhTmDr</t>
+          <t>MhTmDrP</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Mental Health Provider</t>
+          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5381,22 +5371,22 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MhTmDrP</t>
+          <t>RxAvTmDr</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>% Tracts with Mental Health Provider (30-min drive)</t>
+          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5406,27 +5396,27 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Spatial Access to Mental Health Providers</t>
+          <t>Spatial Access to Pharmacies</t>
         </is>
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Mental_Health.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RxAvTmDr</t>
+          <t>RxCntDr</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Avg. Driving Time (min) to nearest Pharmacy </t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
+          <t>Count of Pharmacies (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -5455,20 +5445,20 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RxCntDr</t>
+          <t>RxCtTmDr</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Count of Pharmacies (30-min drive)</t>
+          <t>Tracts with Pharmacy (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -5492,15 +5482,15 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RxCtTmDr</t>
+          <t>RxMinDis</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Tracts with Pharmacy (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
+          <t>Distance (mi) to nearest Pharmacy</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -5529,20 +5519,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RxMinDis</t>
+          <t>RxTmDr</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest Pharmacy</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
+          <t>Driving Time (min) to nearest Pharmacy</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -5566,20 +5556,20 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RxTmDr</t>
+          <t>RxTmDrP</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Pharmacy</t>
+          <t>% tracts with Pharmacy (30-min drive)</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -5603,22 +5593,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>RxTmDrP</t>
+          <t>SutCntDr</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>% tracts with Pharmacy (30-min drive)</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>2019</t>
+          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5628,32 +5618,32 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Spatial Access to Pharmacies</t>
+          <t>Spatial Access to Substance Use Treatment Providers</t>
         </is>
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_Pharmacies.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SutCntDr</t>
+          <t>SutMinDis</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Count of Substance Use Treatment (SUT) facility (30-min drive)</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5677,20 +5667,20 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SutMinDis</t>
+          <t>SutTmDr</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Distance (mi) to Substance Use Treatment (SUT) facility</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5714,20 +5704,20 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SutTmDr</t>
+          <t>SutpAvTmDr</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Driving time (min) to Substance Use Treatment (SUT) facility</t>
+          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5751,12 +5741,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SutpAvTmDr</t>
+          <t>SutpCtTmDr</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Driving Time (min) to nearest Substance Use Treatment program</t>
+          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5764,7 +5754,7 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5788,12 +5778,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SutpCtTmDr</t>
+          <t>SutpTmDrP</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Tracts with Substance Use Treatment (SUT) program (30-min drive)</t>
+          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5801,7 +5791,7 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5825,12 +5815,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SutpTmDrP</t>
+          <t>FqhcAvTmDr</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>% tracts with Substance Use Treatment program (30-min drive)</t>
+          <t>Driving Time to nearest Federally Qualified Health Center</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5838,7 +5828,7 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="D145" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5850,27 +5840,27 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Spatial Access to Substance Use Treatment Providers</t>
+          <t>Spatial access to Health Centers</t>
         </is>
       </c>
       <c r="I145" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_SubstanceUseTreatment.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>FqhcAvTmDr</t>
+          <t>FqhcCntDr</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Driving Time to nearest Federally Qualified Health Center</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
+          <t>Count of FQHCs (30-min drive)</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5899,20 +5889,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>FqhcCntDr</t>
+          <t>FqhcCtTmDr</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Count of FQHCs (30-min drive)</t>
+          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5936,15 +5926,15 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>FqhcCtTmDr</t>
+          <t>FqhcMinDis</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Tracts with Federally Qualified Health Center (30-min driving)</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
+          <t>Distance (mi) to nearest FQHC</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -5973,20 +5963,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FqhcMinDis</t>
+          <t>FqhcTmDr</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Distance (mi) to nearest FQHC</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Driving time (min) to nearest FQHC</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6010,20 +6000,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FqhcTmDr</t>
+          <t>FqhcTmDrP</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Driving time (min) to nearest FQHC</t>
+          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6047,22 +6037,22 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FqhcTmDrP</t>
+          <t>TotTracts</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>% tracts within 30-min drive of Federally Qualified Health Center</t>
+          <t>Total Census Tract Count</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -6084,20 +6074,15 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TotTracts</t>
+          <t>CenFlags</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Total Census Tract Count</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F152" t="inlineStr">
+          <t>Census Flags</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -6109,27 +6094,27 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Spatial access to Health Centers</t>
+          <t>Urban/Suburban/Rural Classification</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Access_FQHCs.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CenFlags</t>
+          <t>RcaRuralP</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Census Flags</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
+          <t>% Tracts Rural (RUCA)</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -6153,15 +6138,15 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RcaRuralP</t>
+          <t>RcaSubrbP</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>% Tracts Rural (RUCA)</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
+          <t>% Tracts Suburban (RUCA)</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -6185,15 +6170,15 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>RcaSubrbP</t>
+          <t>RcaUrbanP</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>% Tracts Suburban (RUCA)</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
+          <t>% Tracts Urban (RUCA)</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -6217,17 +6202,22 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>RcaUrbanP</t>
+          <t>Ruca1</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>% Tracts Urban (RUCA)</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Primary RUCA Code</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2010</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6249,20 +6239,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Ruca1</t>
+          <t>Ruca2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Primary RUCA Code</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
+          <t>Secondary RUCA Code</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -6286,20 +6276,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ruca2</t>
+          <t>Rurality</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Secondary RUCA Code</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
+          <t>Urban-Suburban-Rural</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>2010</t>
         </is>
@@ -6323,52 +6313,47 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Rurality</t>
+          <t>A50_74Hcv</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Urban-Suburban-Rural</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>2010</t>
+          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Environment</t>
+          <t>Outcome</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Urban/Suburban/Rural Classification</t>
+          <t>Hepatitis C Rates</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Urbanicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A50_74Hcv</t>
+          <t>AvA50_74HcvD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Yearly Hepatitis C cases - 50 to 74 years old (2013-2016)</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
+          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6392,15 +6377,15 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AvA50_74HcvD</t>
+          <t>AvAmInHcvD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Average Ages between 50 to 74 Hepitatis C virus Deaths</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
+          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6424,15 +6409,15 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AvAmInHcvD</t>
+          <t>AvAsPiHcvD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - American Indian (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
+          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6456,15 +6441,15 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AvAsPiHcvD</t>
+          <t>AvBlkHcvD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Asian &amp; Pacific Islander (2013 - 2017)</t>
-        </is>
-      </c>
-      <c r="F163" t="inlineStr">
+          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6488,15 +6473,15 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AvBlkHcvD</t>
+          <t>AvFlHcvD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Black (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
+          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6520,15 +6505,15 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>AvFlHcvD</t>
+          <t>AvHcvD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Women (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
+          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6552,15 +6537,15 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AvHcvD</t>
+          <t>AvHspHcvD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Average Hepitatis C virus Deaths (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F166" t="inlineStr">
+          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6584,15 +6569,15 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>AvHspHcvD</t>
+          <t>AvMlHcvD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Hispanic (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
+          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6616,15 +6601,15 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AvMlHcvD</t>
+          <t>AvO75HcvD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Men (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
+          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6648,15 +6633,15 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AvO75HcvD</t>
+          <t>AvU50HcvD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Over 75  (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F169" t="inlineStr">
+          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -6680,17 +6665,22 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AvU50HcvD</t>
+          <t>OdMortRtAv</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Hepatitis C Deaths - Age Under 50 (5-Year Averages)</t>
-        </is>
-      </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>2017</t>
+          <t>Overdose Mortality Rate Average (2016-2020)</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6700,24 +6690,24 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Hepatitis C Rates</t>
+          <t>Opioid Indicators</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/HepatitisC_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>OdMortRtAv</t>
+          <t>OpRxRt</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Overdose Mortality Rate Average (2016-2020)</t>
+          <t>Opioid Prescription Rate</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6725,7 +6715,7 @@
           <t>2020</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6749,20 +6739,15 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>OpRxRt</t>
+          <t>PrMsuseP</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Opioid Prescription Rate</t>
+          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="F172" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -6786,47 +6771,47 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PrMsuseP</t>
+          <t>AnyGslDt</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>% Self-Report Misuse of Prescription Pain Medication (2020)</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Any Good Samaritan Law (date)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Outcome</t>
+          <t>Policy</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Opioid Indicators</t>
+          <t>Harm Reduction Policies</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Opioid_Outcomes.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AnyGslDt</t>
+          <t>AnyGslFr</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (date)</t>
-        </is>
-      </c>
-      <c r="F174" t="inlineStr">
+          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -6850,15 +6835,15 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AnyGslFr</t>
+          <t>AnyNalxDt</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Any Good Samaritan Law (fraction of year in 2018)</t>
-        </is>
-      </c>
-      <c r="F175" t="inlineStr">
+          <t>Any Naloxone Law (date)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -6875,22 +6860,22 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AnyNalxDt</t>
+          <t>AnyNalxFr</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Any Naloxone Law (date)</t>
-        </is>
-      </c>
-      <c r="F176" t="inlineStr">
+          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -6914,15 +6899,15 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AnyNalxFr</t>
+          <t>ExpSsp</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
+          <t>Syringe Service Program (SSP) Authorization Laws</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -6939,22 +6924,22 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ExpSsp</t>
+          <t>GslArrDt</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Syringe Service Program (SSP) Authorization Laws</t>
-        </is>
-      </c>
-      <c r="F178" t="inlineStr">
+          <t>Good Samaritan Law Protecting Arrest (date)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -6971,22 +6956,22 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>GslArrDt</t>
+          <t>GslArrFr</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (date)</t>
-        </is>
-      </c>
-      <c r="F179" t="inlineStr">
+          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7010,15 +6995,15 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>GslArrFr</t>
+          <t>NalxPrStDt</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Good Samaritan Law Protecting Arrest (fraction of year in 2018)</t>
-        </is>
-      </c>
-      <c r="F180" t="inlineStr">
+          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7035,22 +7020,22 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Good_Samaritan_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>NalxPrStDt</t>
+          <t>NalxPrStFr</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing distribution through a standing or order (date)</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
+          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7074,15 +7059,15 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NalxPrStFr</t>
+          <t>NalxPresDt</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Naloxone Law in Effect (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
+          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7106,15 +7091,15 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>NalxPresDt</t>
+          <t>NalxPresFr</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (date)</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
+          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7138,15 +7123,15 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>NalxPresFr</t>
+          <t>NoLwRmUnc</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Naloxone Law allowing pharmacists prescriptive authority (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
+          <t>Laws removing barriers to SSPs</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7163,22 +7148,22 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Naloxone_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>NoLwRmUnc</t>
+          <t>NoPrphLw</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Laws removing barriers to SSPs</t>
-        </is>
-      </c>
-      <c r="F185" t="inlineStr">
+          <t>Drug Paraphernalia Laws</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7202,15 +7187,15 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NoPrphLw</t>
+          <t>NtPrFrDsSy</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Drug Paraphernalia Laws</t>
-        </is>
-      </c>
-      <c r="F186" t="inlineStr">
+          <t>Distribution of Syringes Laws</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7234,15 +7219,15 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>NtPrFrDsSy</t>
+          <t>PrExcInj</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Distribution of Syringes Laws</t>
-        </is>
-      </c>
-      <c r="F187" t="inlineStr">
+          <t>Paraphernalia exludes objects used for injecting drugs</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7266,15 +7251,15 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PrExcInj</t>
+          <t>PrNtRefInj</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Paraphernalia exludes objects used for injecting drugs</t>
-        </is>
-      </c>
-      <c r="F188" t="inlineStr">
+          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7298,15 +7283,15 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PrNtRefInj</t>
+          <t>MdMarijLaw</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Paraphernalia does not refer to objects used for injecting drugs</t>
-        </is>
-      </c>
-      <c r="F189" t="inlineStr">
+          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7318,27 +7303,27 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Harm Reduction Policies</t>
+          <t>Marijuana Policies</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Syringe_Policy.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MdMarijLaw</t>
+          <t>AnyPdmpDt</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Laws authorizing medical marijuana use </t>
-        </is>
-      </c>
-      <c r="F190" t="inlineStr">
+          <t>Any PDMP start date</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7350,27 +7335,27 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Marijuana Policies</t>
+          <t>Prescription Drug Monitoring Programs (PDMP)</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Marijuana_Laws.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AnyPdmpDt</t>
+          <t>AnyPdmpFr</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Any PDMP start date</t>
-        </is>
-      </c>
-      <c r="F191" t="inlineStr">
+          <t>Any PDMP (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7394,15 +7379,15 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AnyPdmpFr</t>
+          <t>AnyPdmphDt</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Any PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F192" t="inlineStr">
+          <t>Any Horowitz PDMP start date</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7426,15 +7411,15 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AnyPdmphDt</t>
+          <t>AnyPdmphFr</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP start date</t>
-        </is>
-      </c>
-      <c r="F193" t="inlineStr">
+          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7458,15 +7443,15 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AnyPdmphFr</t>
+          <t>ElcPdmpDt</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Any Horowitz PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F194" t="inlineStr">
+          <t>Electronic PDMP start date</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7490,15 +7475,15 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ElcPdmpDt</t>
+          <t>ElcPdmpFr</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Electronic PDMP start date</t>
-        </is>
-      </c>
-      <c r="F195" t="inlineStr">
+          <t>Electronic PDMP (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7522,15 +7507,15 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ElcPdmpFr</t>
+          <t>MsAcPdmpDt</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Electronic PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F196" t="inlineStr">
+          <t>Must-Access PDMP start date</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7554,15 +7539,15 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MsAcPdmpDt</t>
+          <t>MsAcPdmpFr</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Must-Access PDMP start date</t>
-        </is>
-      </c>
-      <c r="F197" t="inlineStr">
+          <t>Must-Access PDMP (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7586,15 +7571,15 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MsAcPdmpFr</t>
+          <t>OpPdmpDt</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Must-Access PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F198" t="inlineStr">
+          <t>Operational PDMP start date</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7618,15 +7603,15 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>OpPdmpDt</t>
+          <t>OpPdmpFr</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Operational PDMP start date</t>
-        </is>
-      </c>
-      <c r="F199" t="inlineStr">
+          <t>Operational PDMP (fraction of year in 2017)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7650,15 +7635,15 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>OpPdmpFr</t>
+          <t>CrrctExp</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Operational PDMP (fraction of year in 2017)</t>
-        </is>
-      </c>
-      <c r="F200" t="inlineStr">
+          <t>Corrections expenditures</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
@@ -7670,29 +7655,29 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Prescription Drug Monitoring Programs (PDMP)</t>
+          <t>State &amp; Local Government Expenditures</t>
         </is>
       </c>
       <c r="I200" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/PDMP_Presence.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CrrctExp</t>
+          <t>ExpnFedExp</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Corrections expenditures</t>
-        </is>
-      </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>2019</t>
+          <t>Expansion Medicaid Federal Spending</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7707,22 +7692,22 @@
       </c>
       <c r="I201" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>ExpnFedExp</t>
+          <t>ExpnSttExp</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Expansion Medicaid Federal Spending</t>
-        </is>
-      </c>
-      <c r="F202" t="inlineStr">
+          <t>Expansion Medicaid State Spending</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -7746,17 +7731,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>ExpnSttExp</t>
+          <t>HlthExp</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Expansion Medicaid State Spending</t>
-        </is>
-      </c>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Public health expenditures</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7771,24 +7756,24 @@
       </c>
       <c r="I203" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HlthExp</t>
+          <t>MedcdExp</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Public health expenditures</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>2019</t>
+          <t>Total Medicaid Spending</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7803,24 +7788,24 @@
       </c>
       <c r="I204" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MedcdExp</t>
+          <t>PlcFyrExp</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Total Medicaid Spending</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Police &amp; fire expenditures</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7835,24 +7820,24 @@
       </c>
       <c r="I205" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PlcFyrExp</t>
+          <t>TradFedExp</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Police &amp; fire expenditures</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>2019</t>
+          <t>Traditional Medicaid Federal Spending</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7867,22 +7852,22 @@
       </c>
       <c r="I206" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>TradFedExp</t>
+          <t>TradSttExp</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Traditional Medicaid Federal Spending</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
+          <t>Traditional Medicaid State Spending</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
@@ -7906,17 +7891,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>TradSttExp</t>
+          <t>WlfrExp</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Traditional Medicaid State Spending</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Public welfare expenditures</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2019</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
@@ -7931,56 +7916,56 @@
       </c>
       <c r="I208" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Medical_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>WlfrExp</t>
+          <t>DmyBlckBlt</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Public welfare expenditures</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>2019</t>
+          <t>African American South</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2020</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Policy</t>
+          <t>Social</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>State &amp; Local Government Expenditures</t>
+          <t>Community Overlay Variables</t>
         </is>
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Public_Expenditures.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Unique_Communities.md</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>DmyBlckBlt</t>
+          <t>DmySgrg</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>African American South</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Hypersegregated Cities</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2015</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -8002,17 +7987,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>DmySgrg</t>
+          <t>PrcNtvRsrv</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hypersegregated Cities</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>2015</t>
+          <t>Native American &amp; Tribal Lands</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2017</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -8034,17 +8019,32 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>PrcNtvRsrv</t>
+          <t>BachelorsP</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Native American &amp; Tribal Lands</t>
+          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -8054,24 +8054,24 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Community Overlay Variables</t>
+          <t>Educational Characteristics</t>
         </is>
       </c>
       <c r="I212" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Unique_Communities.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>BachelorsP</t>
+          <t>EduHsP</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>% Persons aged 25 years and over with a bachelor’s degree as their highest level of education</t>
+          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8113,12 +8113,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>EduHsP</t>
+          <t>EduNoHsP</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over whose highest educational attainment is a high school diploma (or equivalent)</t>
+          <t>% Population aged 25 years and over with less than a high school diploma</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8160,12 +8160,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>EduNoHsP</t>
+          <t>EngProf</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with less than a high school diploma</t>
+          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8207,12 +8207,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>EngProf</t>
+          <t>GradSclP</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Proportion of the population aged 5+ who speak a language other than English at home but are proficient in English</t>
+          <t>% Population aged 25 years and over with a graduate or professional degree</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8254,12 +8254,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GradSclP</t>
+          <t>SomeCollegeP</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>% Population aged 25 years and over with a graduate or professional degree</t>
+          <t>% Population 25 years and over with some college, but no degree</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8301,32 +8301,27 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SomeCollegeP</t>
+          <t>CrowdHsng</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>% Population 25 years and over with some college, but no degree</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Proportion of occupied housing units that are considered crowded (more than 1 person per room)</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8336,29 +8331,24 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Educational Characteristics</t>
+          <t>Household Characteristics</t>
         </is>
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Educational_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>CrowdHsng</t>
+          <t>DivrcdP</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Proportion of occupied housing units that are considered crowded (more than 1 person per room)</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Males 15 years and over who are divorced</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8371,6 +8361,11 @@
           <t>2020</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="G219" t="inlineStr">
         <is>
           <t>Social</t>
@@ -8383,24 +8378,19 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>DivrcdP</t>
+          <t>FamSize</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>% Males 15 years and over who are divorced</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Average family size</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -8413,6 +8403,11 @@
           <t>2020</t>
         </is>
       </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr">
         <is>
           <t>Social</t>
@@ -8425,24 +8420,19 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>FamSize</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Average family size</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Average household size</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -8451,6 +8441,11 @@
         </is>
       </c>
       <c r="E221" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8474,17 +8469,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>HhldFA</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Average household size</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Female householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -8493,6 +8483,11 @@
         </is>
       </c>
       <c r="E222" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8516,17 +8511,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>HhldFA</t>
+          <t>HhldFC</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living alone</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Female householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8535,6 +8525,11 @@
         </is>
       </c>
       <c r="E223" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8558,17 +8553,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>HhldFC</t>
+          <t>HhldFS</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>% Female householder with no spouse/partner living with children under 18 years</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Female householder 65 years and over living alone</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -8577,6 +8567,11 @@
         </is>
       </c>
       <c r="E224" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8600,17 +8595,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>HhldFS</t>
+          <t>HhldMA</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>% Female householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Male householder with no spouse/partner living alone</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8619,6 +8609,11 @@
         </is>
       </c>
       <c r="E225" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8642,17 +8637,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HhldMA</t>
+          <t>HhldMC</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living alone</t>
-        </is>
-      </c>
-      <c r="C226" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Male householder with no spouse/partner living with children under 18 years</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -8661,6 +8651,11 @@
         </is>
       </c>
       <c r="E226" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8684,17 +8679,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>HhldMC</t>
+          <t>HhldMS</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>% Male householder with no spouse/partner living with children under 18 years</t>
-        </is>
-      </c>
-      <c r="C227" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Male householder 65 years and over living alone</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -8703,6 +8693,11 @@
         </is>
       </c>
       <c r="E227" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8726,17 +8721,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HhldMS</t>
+          <t>HsdTot</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>% Male householder 65 years and over living alone</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Total households</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -8745,6 +8735,11 @@
         </is>
       </c>
       <c r="E228" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8768,17 +8763,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>HsdTot</t>
+          <t>HsdTypCo</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Total households</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Cohabiting couple household</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -8787,6 +8777,11 @@
         </is>
       </c>
       <c r="E229" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8810,17 +8805,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>HsdTypCo</t>
+          <t>HsdTypM</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>% Cohabiting couple household</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t xml:space="preserve">% Married-couple household </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8829,6 +8819,11 @@
         </is>
       </c>
       <c r="E230" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8852,17 +8847,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>HsdTypM</t>
+          <t>HsdTypMC</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t xml:space="preserve">% Married-couple household </t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Married-couple household With children under 18 years</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8871,6 +8861,11 @@
         </is>
       </c>
       <c r="E231" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
@@ -8894,17 +8889,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>HsdTypMC</t>
+          <t>MrrdP</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>% Married-couple household With children under 18 years</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Males aged 15 or older who are married and living with their spouse</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8917,6 +8907,11 @@
           <t>2020</t>
         </is>
       </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="G232" t="inlineStr">
         <is>
           <t>Social</t>
@@ -8929,33 +8924,38 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MrrdP</t>
+          <t>NonRelFhhP</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who are married and living with their spouse</t>
+          <t>% Nonrelatives in Family Households</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
@@ -8971,19 +8971,19 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>NonRelFhhP</t>
+          <t>NonRelNfhhP</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Family Households</t>
+          <t>% Nonrelatives in Non-family Households</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
@@ -9003,7 +9003,7 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -9025,17 +9025,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>NonRelNfhhP</t>
+          <t>NvMrrdP</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>% Nonrelatives in Non-family Households</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>% Males aged 15 or older who never got married</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9045,12 +9040,12 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -9065,24 +9060,19 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>NvMrrdP</t>
+          <t>OccupantP</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>% Males aged 15 or older who never got married</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Occupied housing units</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -9095,6 +9085,11 @@
           <t>2020</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="G236" t="inlineStr">
         <is>
           <t>Social</t>
@@ -9107,24 +9102,19 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>OccupantP</t>
+          <t>SepartedP</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>% Occupied housing units</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>% Males aged 15 years and over who are separated from their spouse</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -9137,6 +9127,11 @@
           <t>2020</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="G237" t="inlineStr">
         <is>
           <t>Social</t>
@@ -9149,34 +9144,39 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SepartedP</t>
+          <t>TotPopHh</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>% Males aged 15 years and over who are separated from their spouse</t>
+          <t>Total Population in Households</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -9191,39 +9191,34 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>TotPopHh</t>
+          <t>WidwdP</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Total Population in Households</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>% Population aged 15 and over who are widowed</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -9238,34 +9233,24 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Household_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>WidwdP</t>
+          <t>TtlJlAdm</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>% Population aged 15 and over who are widowed</t>
-        </is>
-      </c>
-      <c r="C240" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>Total Jail Admissions Count, ASJ/COJ Data</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>2020</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9275,27 +9260,27 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Household Characteristics</t>
+          <t>Incarceration</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Marital_Status.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Jail_Incarceration_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>TtlJlAdm</t>
+          <t>TtlJlAdmr</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Total Jail Admissions Count, ASJ/COJ Data</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
+          <t>Total jail admission rate</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -9319,15 +9304,15 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>TtlJlAdmr</t>
+          <t>TtlJlPp</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Total jail admission rate</t>
-        </is>
-      </c>
-      <c r="C242" t="inlineStr">
+          <t>Total Jail Population Count, ASJ/COJ Data</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -9351,15 +9336,15 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>TtlJlPp</t>
+          <t>TtlJlPpr</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Total Jail Population Count, ASJ/COJ Data</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
+          <t>Total Jail Population Rate</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -9383,15 +9368,15 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>TtlJlPpr</t>
+          <t>TtlJlPrt</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Total Jail Population Rate</t>
-        </is>
-      </c>
-      <c r="C244" t="inlineStr">
+          <t>Pretrial Jail Population Count</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -9415,15 +9400,15 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TtlJlPrt</t>
+          <t>TtlJlPrtr</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Pretrial Jail Population Count</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
+          <t>Pretrial Jail Population Rate</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
@@ -9447,17 +9432,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>TtlJlPrtr</t>
+          <t>TtlPrAPp</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Pretrial Jail Population Rate</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>2017</t>
+          <t>Prison Prison Admissions Count</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2016</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9472,22 +9457,22 @@
       </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Jail_Incarceration_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Prison_Incarceration_Rates.md</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>TtlPrAPp</t>
+          <t>TtlPrAPpr</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Prison Prison Admissions Count</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
+          <t>Total Prison Admission Rate</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -9511,15 +9496,15 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TtlPrAPpr</t>
+          <t>TtlPrPp</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Total Prison Admission Rate</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
+          <t>Total Prison Population Count</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -9543,15 +9528,15 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>TtlPrPp</t>
+          <t>TtlPrPpr</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Total Prison Population Count</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
+          <t>Total Prison Population Rate</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
@@ -9575,17 +9560,32 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>TtlPrPpr</t>
+          <t>DisbP</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Total Prison Population Rate</t>
+          <t>% Population with Disability</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
@@ -9595,24 +9595,24 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Incarceration</t>
+          <t>Population with Disability</t>
         </is>
       </c>
       <c r="I250" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Prison_Incarceration_Rates.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Population_withDisability.md</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>DisbP</t>
+          <t>Age15_44</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>% Population with Disability</t>
+          <t>% Population: Age 15-44</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9642,19 +9642,19 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Population with Disability</t>
+          <t>Population, Age &amp; Sex Ratios</t>
         </is>
       </c>
       <c r="I251" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Population_withDisability.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Age15_44</t>
+          <t>Age15_44P</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -9701,12 +9701,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Age15_44P</t>
+          <t>ChildrenP</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>% Population: Age 15-44</t>
+          <t>Children %</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -9748,12 +9748,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ChildrenP</t>
+          <t>FemP</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Children %</t>
+          <t>% Population that is Female</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -9795,12 +9795,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>FemP</t>
+          <t>MaleP</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>% Population that is Female</t>
+          <t>% Population that is Male</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -9842,32 +9842,27 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>MaleP</t>
+          <t>MedAge</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>% Population that is Male</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>Median age</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
@@ -9889,27 +9884,32 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>MedAge</t>
+          <t>Ovr16</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Median age</t>
+          <t>Count persons over 16 years</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
@@ -9931,12 +9931,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Ovr16</t>
+          <t>Ovr16P</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Count persons over 16 years</t>
+          <t>% Population over 16 years</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Ovr16P</t>
+          <t>Ovr18</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>% Population over 16 years</t>
+          <t>Count persons over 18 years</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10025,12 +10025,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Ovr18</t>
+          <t>Ovr18P</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Count persons over 18 years</t>
+          <t>% Population over 18 years</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10072,12 +10072,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Ovr18P</t>
+          <t>Ovr21</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>% Population over 18 years</t>
+          <t>Count persons over 21 years</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10119,12 +10119,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Ovr21</t>
+          <t>Ovr21P</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Count persons over 21 years</t>
+          <t>% Population over 21 years</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10166,32 +10166,27 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Ovr21P</t>
+          <t>Ovr62P</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>% Population over 21 years</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>% Population over 62 years</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -10213,27 +10208,32 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Ovr62P</t>
+          <t>Ovr65</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>% Population over 62 years</t>
+          <t>% Population: Age 65+</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -10255,7 +10255,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Ovr65</t>
+          <t>Ovr65P</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -10302,12 +10302,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Ovr65P</t>
+          <t>SRatio</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>% Population: Age 65+</t>
+          <t>Sex ratio for the total population (males per 100 females)</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10349,12 +10349,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SRatio</t>
+          <t>SRatio18</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Sex ratio for the total population (males per 100 females)</t>
+          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10396,12 +10396,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SRatio18</t>
+          <t>SRatio65</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Sex ratio among adults aged 18 and older (males per 100 females)</t>
+          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10443,12 +10443,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>SRatio65</t>
+          <t>TotPop</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Sex ratio among seniors aged 65 and older (males per 100 females)</t>
+          <t>Total Population</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10490,32 +10490,27 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TotPop</t>
+          <t>Und18P</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Total Population</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>2018</t>
+          <t>% Population under 18 years old</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
@@ -10537,27 +10532,32 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Und18P</t>
+          <t>AmIndE</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>% Population under 18 years old</t>
+          <t>Count Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10567,24 +10567,24 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Population, Age &amp; Sex Ratios</t>
+          <t>Race &amp; Ethnicity</t>
         </is>
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Demographic_Characteristics.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AmIndE</t>
+          <t>AmIndP</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Count Native American/Alaska Native Population</t>
+          <t>% Native American/Alaska Native Population</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10626,12 +10626,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>AmIndP</t>
+          <t>AsianE</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>% Native American/Alaska Native Population</t>
+          <t>Count Asian Population</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10673,12 +10673,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>AsianE</t>
+          <t>AsianP</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Count Asian Population</t>
+          <t>% Asian Population</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10720,12 +10720,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>AsianP</t>
+          <t>BlackE</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>% Asian Population</t>
+          <t>Count Black/African American Populationw</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10767,12 +10767,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>BlackE</t>
+          <t>BlackP</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Count Black/African American Populationw</t>
+          <t>% Black/African American Populationw</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10814,12 +10814,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>BlackP</t>
+          <t>HisE</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>% Black/African American Populationw</t>
+          <t>Count Hispanic/Latinx Population</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10861,12 +10861,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>HisE</t>
+          <t>HisP</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Count Hispanic/Latinx Population</t>
+          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10874,19 +10874,14 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10908,22 +10903,27 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>HisP</t>
+          <t>HispP</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>% Population with ethnicity identified as of Hispanic or Latinx origin</t>
+          <t>% Hispanic/Latinx Population</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F279" t="inlineStr">
@@ -10950,12 +10950,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>HispP</t>
+          <t>OtherE</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>% Hispanic/Latinx Population</t>
+          <t>Count Other (race) Population</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -10997,12 +10997,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>OtherE</t>
+          <t>OtherP</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Count Other (race) Population</t>
+          <t>% Other (race) Population</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11044,12 +11044,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>OtherP</t>
+          <t>PacIsE</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>% Other (race) Population</t>
+          <t>Count Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11091,12 +11091,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>PacIsE</t>
+          <t>PacIsP</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Count Native Hawaiian &amp; Other PI Population</t>
+          <t>% Native Hawaiian &amp; Other PI Population</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11138,12 +11138,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PacIsP</t>
+          <t>TwoRaceE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>% Native Hawaiian &amp; Other PI Population</t>
+          <t>Count Population identifying as two or more races</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11185,12 +11185,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>TwoRaceE</t>
+          <t>TwoRaceP</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Count Population identifying as two or more races</t>
+          <t>% Population identifying as two or more races</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11198,19 +11198,14 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
@@ -11232,22 +11227,27 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>TwoRaceP</t>
+          <t>WhiteE</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>% Population identifying as two or more races</t>
+          <t>Count White Population</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2018</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="F286" t="inlineStr">
@@ -11274,12 +11274,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>WhiteE</t>
+          <t>WhiteP</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Count White Population</t>
+          <t>% White Population</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11321,12 +11321,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>WhiteP</t>
+          <t>DsmAs</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>% White Population</t>
+          <t>Segregation: Dissimilarity (Asian)</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11339,11 +11339,6 @@
           <t>2018</t>
         </is>
       </c>
-      <c r="E288" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="F288" t="inlineStr">
         <is>
           <t>2018</t>
@@ -11356,24 +11351,24 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Race &amp; Ethnicity</t>
+          <t>Residential Segregation Measures</t>
         </is>
       </c>
       <c r="I288" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Race_Ethnicity.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>DsmAs</t>
+          <t>DsmBlk</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Asian)</t>
+          <t>Segregation: Dissimilarity (Black)</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11410,12 +11405,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>DsmBlk</t>
+          <t>DsmHsp</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Black)</t>
+          <t>Segregation: Dissimilarity (Hispanic)</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11452,12 +11447,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>DsmHsp</t>
+          <t>IntrAsWht</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Segregation: Dissimilarity (Hispanic)</t>
+          <t>Segregation: Interaction (Asian)</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11494,12 +11489,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>IntrAsWht</t>
+          <t>IntrBlkWht</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Asian)</t>
+          <t>Segregation: Interaction (Black)</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11536,12 +11531,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>IntrBlkWht</t>
+          <t>IntrHspWht</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Black)</t>
+          <t>Segregation: Interaction (Hispanic)</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11578,12 +11573,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>IntrHspWht</t>
+          <t>IsoAs</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Segregation: Interaction (Hispanic)</t>
+          <t>Segregation: Isolation (Asian)</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11620,12 +11615,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>IsoAs</t>
+          <t>IsoBlk</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Asian)</t>
+          <t>Segregation: Isolation (Black)</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11662,12 +11657,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>IsoBlk</t>
+          <t>IsoHsp</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Black)</t>
+          <t>Segregation: Isolation (Hispanic)</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11704,12 +11699,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>IsoHsp</t>
+          <t>TotVetPop</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Segregation: Isolation (Hispanic)</t>
+          <t>Total Veteran Population</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11722,6 +11717,11 @@
           <t>2018</t>
         </is>
       </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="F297" t="inlineStr">
         <is>
           <t>2018</t>
@@ -11734,24 +11734,24 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Residential Segregation Measures</t>
+          <t>Veteran Population</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Residential_Segregation.md</t>
+          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>TotVetPop</t>
+          <t>VetP</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Total Veteran Population</t>
+          <t>% Veteran Population</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11785,53 +11785,6 @@
         </is>
       </c>
       <c r="I298" t="inlineStr">
-        <is>
-          <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
-        </is>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" t="inlineStr">
-        <is>
-          <t>VetP</t>
-        </is>
-      </c>
-      <c r="B299" t="inlineStr">
-        <is>
-          <t>% Veteran Population</t>
-        </is>
-      </c>
-      <c r="C299" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="D299" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="E299" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F299" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="G299" t="inlineStr">
-        <is>
-          <t>Social</t>
-        </is>
-      </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>Veteran Population</t>
-        </is>
-      </c>
-      <c r="I299" t="inlineStr">
         <is>
           <t>https://github.com/healthyregions/oeps/blob/main/metadata/Veteran_Population.md</t>
         </is>
